--- a/to_export_date.xlsx
+++ b/to_export_date.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -61,7 +61,133 @@
     <t>ARRIVAL</t>
   </si>
   <si>
-    <t>*********No Travel Order data.*********</t>
+    <t>May 01, 2020</t>
+  </si>
+  <si>
+    <t>May 04, 2020 to January 01, 1970</t>
+  </si>
+  <si>
+    <t>7:00 AM</t>
+  </si>
+  <si>
+    <t>4:00 PM</t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>Christian Paul V. Ferrer</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Tagaytay</t>
+  </si>
+  <si>
+    <t>May 04, 2020</t>
+  </si>
+  <si>
+    <t>May 20, 2020 to January 01, 1970</t>
+  </si>
+  <si>
+    <t>8:00 AM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>May 08, 2020</t>
+  </si>
+  <si>
+    <t>May 19, 2020 to January 01, 1970</t>
+  </si>
+  <si>
+    <t>3:20 PM</t>
+  </si>
+  <si>
+    <t>5:20 PM</t>
+  </si>
+  <si>
+    <t>Shiela Mei  Olivar</t>
+  </si>
+  <si>
+    <t>it test</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>May 11, 2020</t>
+  </si>
+  <si>
+    <t>May 11, 2020 to January 01, 1970</t>
+  </si>
+  <si>
+    <t>6:00 PM</t>
+  </si>
+  <si>
+    <t>Maybelline  Monteiro</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>May 06, 2020 to January 01, 1970</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>May 18, 2020</t>
+  </si>
+  <si>
+    <t>May 20, 2020 to May 07, 2020</t>
+  </si>
+  <si>
+    <t>Christian Paul V Ferrer</t>
+  </si>
+  <si>
+    <t>May 18, 2020 to January 01, 1970</t>
+  </si>
+  <si>
+    <t>May 20, 2020 to May 13, 2020</t>
+  </si>
+  <si>
+    <t>May 19, 2020</t>
+  </si>
+  <si>
+    <t>May 19, 2020 to May 20, 2020</t>
+  </si>
+  <si>
+    <t>9:00 AM</t>
+  </si>
+  <si>
+    <t>May 14, 2020 to May 13, 2020</t>
+  </si>
+  <si>
+    <t>9:00 PM</t>
+  </si>
+  <si>
+    <t>ORD-Legal</t>
+  </si>
+  <si>
+    <t>May 18, 2020 to May 14, 2020</t>
+  </si>
+  <si>
+    <t>7:07 AM</t>
+  </si>
+  <si>
+    <t>7:07 PM</t>
+  </si>
+  <si>
+    <t>May 27, 2020 to May 26, 2020</t>
+  </si>
+  <si>
+    <t>asasa</t>
   </si>
 </sst>
 </file>
@@ -234,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="53">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -393,27 +519,6 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="14" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="18" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,7 +823,7 @@
   <dimension ref="A1:K938"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="37.5" defaultColWidth="14.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -842,161 +947,385 @@
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="37.5">
       <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A9" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="37.5">
       <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
+      <c r="B10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:11" customHeight="1" ht="37.5">
       <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="B11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="37.5">
       <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
+      <c r="B12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="37.5">
       <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
+      <c r="B13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="37.5">
       <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
+      <c r="B14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="37.5">
       <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
+      <c r="B15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="37.5">
       <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
+      <c r="B16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="17">
+        <v>4</v>
+      </c>
+      <c r="I16" s="17">
+        <v>4</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:11" customHeight="1" ht="37.5">
       <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="B17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="17">
+        <v>2</v>
+      </c>
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:11" customHeight="1" ht="37.5">
       <c r="A18" s="13"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
+      <c r="B18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="17">
+        <v>4</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:11" customHeight="1" ht="37.5">
       <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
+      <c r="B19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="17">
+        <v>7</v>
+      </c>
+      <c r="I19" s="17">
+        <v>7</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:11" customHeight="1" ht="37.5">
       <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
+      <c r="B20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="17">
+        <v>8</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:11" customHeight="1" ht="37.5">
       <c r="A21" s="13"/>
@@ -10298,7 +10627,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/to_export_date.xlsx
+++ b/to_export_date.xlsx
@@ -37,7 +37,7 @@
     <t>DATE OF TO</t>
   </si>
   <si>
-    <t>TIME</t>
+    <t>TIME OF TO</t>
   </si>
   <si>
     <t>OFFICE</t>
@@ -341,17 +341,17 @@
       </top>
     </border>
     <border>
-      <right style="thin">
+      <left style="thin">
         <color rgb="FF000000"/>
-      </right>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
     </border>
     <border>
-      <left style="thin">
+      <right style="thin">
         <color rgb="FF000000"/>
-      </left>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -463,39 +463,6 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -519,6 +486,39 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="14" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,7 +823,7 @@
   <dimension ref="A1:K938"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="37.5" defaultColWidth="14.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -868,24 +868,24 @@
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="37.5">
       <c r="B4" s="2"/>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:11" customHeight="1" ht="37.5">
@@ -900,57 +900,57 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="41" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="35"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="37.5">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -978,7 +978,7 @@
       <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1006,7 +1006,7 @@
       <c r="B10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="34" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -1036,7 +1036,7 @@
       <c r="B11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -1064,7 +1064,7 @@
       <c r="B12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -1094,7 +1094,7 @@
       <c r="B13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -1124,7 +1124,7 @@
       <c r="B14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -1154,7 +1154,7 @@
       <c r="B15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -1184,7 +1184,7 @@
       <c r="B16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -1214,7 +1214,7 @@
       <c r="B17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="35" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -1235,14 +1235,16 @@
       <c r="I17" s="17">
         <v>2</v>
       </c>
-      <c r="J17" s="18"/>
+      <c r="J17" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:11" customHeight="1" ht="37.5">
       <c r="A18" s="13"/>
       <c r="B18" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -1272,7 +1274,7 @@
       <c r="B19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="36" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -1302,7 +1304,7 @@
       <c r="B20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="34" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -1330,7 +1332,7 @@
     <row r="21" spans="1:11" customHeight="1" ht="37.5">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="45"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="15"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1342,7 +1344,7 @@
     <row r="22" spans="1:11" customHeight="1" ht="37.5">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="45"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -1354,7 +1356,7 @@
     <row r="23" spans="1:11" customHeight="1" ht="37.5">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="45"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -1366,7 +1368,7 @@
     <row r="24" spans="1:11" customHeight="1" ht="37.5">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="45"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -1378,7 +1380,7 @@
     <row r="25" spans="1:11" customHeight="1" ht="37.5">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="45"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -1390,7 +1392,7 @@
     <row r="26" spans="1:11" customHeight="1" ht="37.5">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="45"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -1402,7 +1404,7 @@
     <row r="27" spans="1:11" customHeight="1" ht="37.5">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="45"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -1414,7 +1416,7 @@
     <row r="28" spans="1:11" customHeight="1" ht="37.5">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="45"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -1426,7 +1428,7 @@
     <row r="29" spans="1:11" customHeight="1" ht="37.5">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="45"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -1438,7 +1440,7 @@
     <row r="30" spans="1:11" customHeight="1" ht="37.5">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="45"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -1450,7 +1452,7 @@
     <row r="31" spans="1:11" customHeight="1" ht="37.5">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="45"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -1462,7 +1464,7 @@
     <row r="32" spans="1:11" customHeight="1" ht="37.5">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="45"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -1474,7 +1476,7 @@
     <row r="33" spans="1:11" customHeight="1" ht="37.5">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="45"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -1486,7 +1488,7 @@
     <row r="34" spans="1:11" customHeight="1" ht="37.5">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="45"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -1498,7 +1500,7 @@
     <row r="35" spans="1:11" customHeight="1" ht="37.5">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="45"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -1510,7 +1512,7 @@
     <row r="36" spans="1:11" customHeight="1" ht="37.5">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="45"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="16"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -1522,7 +1524,7 @@
     <row r="37" spans="1:11" customHeight="1" ht="37.5">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="45"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -1534,7 +1536,7 @@
     <row r="38" spans="1:11" customHeight="1" ht="37.5">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="45"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="15"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
@@ -1546,7 +1548,7 @@
     <row r="39" spans="1:11" customHeight="1" ht="37.5">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="45"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
@@ -1558,7 +1560,7 @@
     <row r="40" spans="1:11" customHeight="1" ht="37.5">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="45"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
@@ -1570,7 +1572,7 @@
     <row r="41" spans="1:11" customHeight="1" ht="37.5">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="45"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
@@ -1582,7 +1584,7 @@
     <row r="42" spans="1:11" customHeight="1" ht="37.5">
       <c r="A42" s="13"/>
       <c r="B42" s="22"/>
-      <c r="C42" s="48"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
@@ -1594,7 +1596,7 @@
     <row r="43" spans="1:11" customHeight="1" ht="37.5">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="49"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="24"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
@@ -1606,7 +1608,7 @@
     <row r="44" spans="1:11" customHeight="1" ht="37.5">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="45"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="15"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
@@ -1618,7 +1620,7 @@
     <row r="45" spans="1:11" customHeight="1" ht="37.5">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="45"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="15"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -1630,7 +1632,7 @@
     <row r="46" spans="1:11" customHeight="1" ht="37.5">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="45"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -1642,7 +1644,7 @@
     <row r="47" spans="1:11" customHeight="1" ht="37.5">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="45"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -1654,7 +1656,7 @@
     <row r="48" spans="1:11" customHeight="1" ht="37.5">
       <c r="A48" s="13"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="45"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
@@ -1666,7 +1668,7 @@
     <row r="49" spans="1:11" customHeight="1" ht="37.5">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="45"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -1678,7 +1680,7 @@
     <row r="50" spans="1:11" customHeight="1" ht="37.5">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="50"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="15"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
@@ -1690,7 +1692,7 @@
     <row r="51" spans="1:11" customHeight="1" ht="37.5">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="50"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="15"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
@@ -1702,7 +1704,7 @@
     <row r="52" spans="1:11" customHeight="1" ht="37.5">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="45"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="15"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -1714,7 +1716,7 @@
     <row r="53" spans="1:11" customHeight="1" ht="37.5">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="45"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
@@ -1726,7 +1728,7 @@
     <row r="54" spans="1:11" customHeight="1" ht="37.5">
       <c r="A54" s="13"/>
       <c r="B54" s="25"/>
-      <c r="C54" s="51"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="26"/>
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
@@ -1738,7 +1740,7 @@
     <row r="55" spans="1:11" customHeight="1" ht="37.5">
       <c r="A55" s="29"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="52"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="32"/>
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
@@ -1750,7 +1752,7 @@
     <row r="56" spans="1:11" customHeight="1" ht="37.5">
       <c r="A56" s="29"/>
       <c r="B56" s="31"/>
-      <c r="C56" s="52"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="32"/>
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
@@ -1762,7 +1764,7 @@
     <row r="57" spans="1:11" customHeight="1" ht="37.5">
       <c r="A57" s="29"/>
       <c r="B57" s="31"/>
-      <c r="C57" s="52"/>
+      <c r="C57" s="41"/>
       <c r="D57" s="32"/>
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
@@ -1774,7 +1776,7 @@
     <row r="58" spans="1:11" customHeight="1" ht="37.5">
       <c r="A58" s="29"/>
       <c r="B58" s="31"/>
-      <c r="C58" s="52"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="30"/>
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>

--- a/to_export_date.xlsx
+++ b/to_export_date.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$J$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -166,15 +166,6 @@
     <t>9:00 AM</t>
   </si>
   <si>
-    <t>May 14, 2020 to May 13, 2020</t>
-  </si>
-  <si>
-    <t>9:00 PM</t>
-  </si>
-  <si>
-    <t>ORD-Legal</t>
-  </si>
-  <si>
     <t>May 18, 2020 to May 14, 2020</t>
   </si>
   <si>
@@ -184,10 +175,37 @@
     <t>7:07 PM</t>
   </si>
   <si>
+    <t>May 24, 2020</t>
+  </si>
+  <si>
     <t>May 27, 2020 to May 26, 2020</t>
   </si>
   <si>
+    <t>9:00 PM</t>
+  </si>
+  <si>
     <t>asasa</t>
+  </si>
+  <si>
+    <t>DILG CENTTAL OFFICE</t>
+  </si>
+  <si>
+    <t>May 24, 2020 to May 24, 2020</t>
+  </si>
+  <si>
+    <t>3:41 PM</t>
+  </si>
+  <si>
+    <t>3:42 PM</t>
+  </si>
+  <si>
+    <t>May 25, 2020 to May 25, 2020</t>
+  </si>
+  <si>
+    <t>3:58 PM</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -283,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -306,25 +324,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -356,11 +355,19 @@
         <color rgb="FF000000"/>
       </top>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="34">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -421,48 +428,6 @@
     <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="18" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="18" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="14" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="18" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -472,22 +437,7 @@
     <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="14" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="14" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -496,25 +446,25 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -820,10 +770,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K938"/>
+  <dimension ref="A1:K911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="37.5" defaultColWidth="14.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -868,24 +818,24 @@
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="37.5">
       <c r="B4" s="2"/>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:11" customHeight="1" ht="37.5">
@@ -900,57 +850,57 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="50" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="43"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="37.5">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -978,7 +928,7 @@
       <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1006,7 +956,7 @@
       <c r="B10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -1036,7 +986,7 @@
       <c r="B11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -1064,7 +1014,7 @@
       <c r="B12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -1094,7 +1044,7 @@
       <c r="B13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -1124,7 +1074,7 @@
       <c r="B14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -1154,7 +1104,7 @@
       <c r="B15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -1184,7 +1134,7 @@
       <c r="B16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -1214,7 +1164,7 @@
       <c r="B17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -1244,26 +1194,26 @@
       <c r="B18" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="22" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>40</v>
+      <c r="H18" s="17">
+        <v>7</v>
       </c>
       <c r="I18" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>33</v>
@@ -1272,13 +1222,13 @@
     <row r="19" spans="1:11" customHeight="1" ht="37.5">
       <c r="A19" s="13"/>
       <c r="B19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="36" t="s">
         <v>52</v>
       </c>
+      <c r="C19" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="D19" s="15" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>54</v>
@@ -1289,29 +1239,27 @@
       <c r="G19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="17">
-        <v>7</v>
-      </c>
-      <c r="I19" s="17">
-        <v>7</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="H19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:11" customHeight="1" ht="37.5">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -1319,32 +1267,46 @@
       <c r="G20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>56</v>
+      <c r="H20" s="17">
+        <v>1</v>
       </c>
       <c r="I20" s="17">
-        <v>8</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:11" customHeight="1" ht="37.5">
       <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="B21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:11" customHeight="1" ht="37.5">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -1356,7 +1318,7 @@
     <row r="23" spans="1:11" customHeight="1" ht="37.5">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -1368,7 +1330,7 @@
     <row r="24" spans="1:11" customHeight="1" ht="37.5">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -1380,7 +1342,7 @@
     <row r="25" spans="1:11" customHeight="1" ht="37.5">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -1392,7 +1354,7 @@
     <row r="26" spans="1:11" customHeight="1" ht="37.5">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -1404,7 +1366,7 @@
     <row r="27" spans="1:11" customHeight="1" ht="37.5">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -1416,7 +1378,7 @@
     <row r="28" spans="1:11" customHeight="1" ht="37.5">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -1428,7 +1390,7 @@
     <row r="29" spans="1:11" customHeight="1" ht="37.5">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -1440,7 +1402,7 @@
     <row r="30" spans="1:11" customHeight="1" ht="37.5">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -1452,7 +1414,7 @@
     <row r="31" spans="1:11" customHeight="1" ht="37.5">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="34"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -1462,328 +1424,301 @@
       <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="18"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A42" s="13"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="16"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="16"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="16"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="16"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="16"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="16"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A48" s="13"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="16"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="16"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="16"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="16"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="16"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="16"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A54" s="13"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="16"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="16"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A56" s="29"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="16"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A57" s="29"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="16"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A58" s="29"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="16"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:11" customHeight="1" ht="37.5">
       <c r="A59" s="11"/>
@@ -1819,7 +1754,6 @@
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A62" s="11"/>
       <c r="B62" s="3"/>
       <c r="C62" s="5"/>
       <c r="D62" s="3"/>
@@ -1830,7 +1764,6 @@
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A63" s="11"/>
       <c r="B63" s="3"/>
       <c r="C63" s="5"/>
       <c r="D63" s="3"/>
@@ -1841,7 +1774,6 @@
       <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A64" s="11"/>
       <c r="B64" s="3"/>
       <c r="C64" s="5"/>
       <c r="D64" s="3"/>
@@ -1852,7 +1784,6 @@
       <c r="I64" s="5"/>
     </row>
     <row r="65" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A65" s="11"/>
       <c r="B65" s="3"/>
       <c r="C65" s="5"/>
       <c r="D65" s="3"/>
@@ -1863,7 +1794,6 @@
       <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A66" s="11"/>
       <c r="B66" s="3"/>
       <c r="C66" s="5"/>
       <c r="D66" s="3"/>
@@ -1874,7 +1804,6 @@
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A67" s="11"/>
       <c r="B67" s="3"/>
       <c r="C67" s="5"/>
       <c r="D67" s="3"/>
@@ -1885,7 +1814,6 @@
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A68" s="11"/>
       <c r="B68" s="3"/>
       <c r="C68" s="5"/>
       <c r="D68" s="3"/>
@@ -1896,7 +1824,6 @@
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A69" s="11"/>
       <c r="B69" s="3"/>
       <c r="C69" s="5"/>
       <c r="D69" s="3"/>
@@ -1907,7 +1834,6 @@
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A70" s="11"/>
       <c r="B70" s="3"/>
       <c r="C70" s="5"/>
       <c r="D70" s="3"/>
@@ -1918,7 +1844,6 @@
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A71" s="11"/>
       <c r="B71" s="3"/>
       <c r="C71" s="5"/>
       <c r="D71" s="3"/>
@@ -1929,7 +1854,6 @@
       <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A72" s="11"/>
       <c r="B72" s="3"/>
       <c r="C72" s="5"/>
       <c r="D72" s="3"/>
@@ -1940,7 +1864,6 @@
       <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A73" s="11"/>
       <c r="B73" s="3"/>
       <c r="C73" s="5"/>
       <c r="D73" s="3"/>
@@ -1951,7 +1874,6 @@
       <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A74" s="11"/>
       <c r="B74" s="3"/>
       <c r="C74" s="5"/>
       <c r="D74" s="3"/>
@@ -1962,7 +1884,6 @@
       <c r="I74" s="5"/>
     </row>
     <row r="75" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A75" s="11"/>
       <c r="B75" s="3"/>
       <c r="C75" s="5"/>
       <c r="D75" s="3"/>
@@ -1973,7 +1894,6 @@
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A76" s="11"/>
       <c r="B76" s="3"/>
       <c r="C76" s="5"/>
       <c r="D76" s="3"/>
@@ -1984,7 +1904,6 @@
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A77" s="11"/>
       <c r="B77" s="3"/>
       <c r="C77" s="5"/>
       <c r="D77" s="3"/>
@@ -1995,7 +1914,6 @@
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A78" s="11"/>
       <c r="B78" s="3"/>
       <c r="C78" s="5"/>
       <c r="D78" s="3"/>
@@ -2006,7 +1924,6 @@
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A79" s="11"/>
       <c r="B79" s="3"/>
       <c r="C79" s="5"/>
       <c r="D79" s="3"/>
@@ -2017,7 +1934,6 @@
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A80" s="11"/>
       <c r="B80" s="3"/>
       <c r="C80" s="5"/>
       <c r="D80" s="3"/>
@@ -2028,7 +1944,6 @@
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A81" s="11"/>
       <c r="B81" s="3"/>
       <c r="C81" s="5"/>
       <c r="D81" s="3"/>
@@ -2039,7 +1954,6 @@
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A82" s="11"/>
       <c r="B82" s="3"/>
       <c r="C82" s="5"/>
       <c r="D82" s="3"/>
@@ -2050,7 +1964,6 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A83" s="11"/>
       <c r="B83" s="3"/>
       <c r="C83" s="5"/>
       <c r="D83" s="3"/>
@@ -2061,7 +1974,6 @@
       <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A84" s="11"/>
       <c r="B84" s="3"/>
       <c r="C84" s="5"/>
       <c r="D84" s="3"/>
@@ -2072,7 +1984,6 @@
       <c r="I84" s="5"/>
     </row>
     <row r="85" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A85" s="11"/>
       <c r="B85" s="3"/>
       <c r="C85" s="5"/>
       <c r="D85" s="3"/>
@@ -2083,7 +1994,6 @@
       <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A86" s="11"/>
       <c r="B86" s="3"/>
       <c r="C86" s="5"/>
       <c r="D86" s="3"/>
@@ -2094,7 +2004,6 @@
       <c r="I86" s="5"/>
     </row>
     <row r="87" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A87" s="11"/>
       <c r="B87" s="3"/>
       <c r="C87" s="5"/>
       <c r="D87" s="3"/>
@@ -2105,7 +2014,6 @@
       <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A88" s="11"/>
       <c r="B88" s="3"/>
       <c r="C88" s="5"/>
       <c r="D88" s="3"/>
@@ -10344,276 +10252,6 @@
       <c r="G911" s="5"/>
       <c r="H911" s="5"/>
       <c r="I911" s="5"/>
-    </row>
-    <row r="912" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B912" s="3"/>
-      <c r="C912" s="5"/>
-      <c r="D912" s="3"/>
-      <c r="E912" s="3"/>
-      <c r="F912" s="3"/>
-      <c r="G912" s="5"/>
-      <c r="H912" s="5"/>
-      <c r="I912" s="5"/>
-    </row>
-    <row r="913" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B913" s="3"/>
-      <c r="C913" s="5"/>
-      <c r="D913" s="3"/>
-      <c r="E913" s="3"/>
-      <c r="F913" s="3"/>
-      <c r="G913" s="5"/>
-      <c r="H913" s="5"/>
-      <c r="I913" s="5"/>
-    </row>
-    <row r="914" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B914" s="3"/>
-      <c r="C914" s="5"/>
-      <c r="D914" s="3"/>
-      <c r="E914" s="3"/>
-      <c r="F914" s="3"/>
-      <c r="G914" s="5"/>
-      <c r="H914" s="5"/>
-      <c r="I914" s="5"/>
-    </row>
-    <row r="915" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B915" s="3"/>
-      <c r="C915" s="5"/>
-      <c r="D915" s="3"/>
-      <c r="E915" s="3"/>
-      <c r="F915" s="3"/>
-      <c r="G915" s="5"/>
-      <c r="H915" s="5"/>
-      <c r="I915" s="5"/>
-    </row>
-    <row r="916" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B916" s="3"/>
-      <c r="C916" s="5"/>
-      <c r="D916" s="3"/>
-      <c r="E916" s="3"/>
-      <c r="F916" s="3"/>
-      <c r="G916" s="5"/>
-      <c r="H916" s="5"/>
-      <c r="I916" s="5"/>
-    </row>
-    <row r="917" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B917" s="3"/>
-      <c r="C917" s="5"/>
-      <c r="D917" s="3"/>
-      <c r="E917" s="3"/>
-      <c r="F917" s="3"/>
-      <c r="G917" s="5"/>
-      <c r="H917" s="5"/>
-      <c r="I917" s="5"/>
-    </row>
-    <row r="918" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B918" s="3"/>
-      <c r="C918" s="5"/>
-      <c r="D918" s="3"/>
-      <c r="E918" s="3"/>
-      <c r="F918" s="3"/>
-      <c r="G918" s="5"/>
-      <c r="H918" s="5"/>
-      <c r="I918" s="5"/>
-    </row>
-    <row r="919" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B919" s="3"/>
-      <c r="C919" s="5"/>
-      <c r="D919" s="3"/>
-      <c r="E919" s="3"/>
-      <c r="F919" s="3"/>
-      <c r="G919" s="5"/>
-      <c r="H919" s="5"/>
-      <c r="I919" s="5"/>
-    </row>
-    <row r="920" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B920" s="3"/>
-      <c r="C920" s="5"/>
-      <c r="D920" s="3"/>
-      <c r="E920" s="3"/>
-      <c r="F920" s="3"/>
-      <c r="G920" s="5"/>
-      <c r="H920" s="5"/>
-      <c r="I920" s="5"/>
-    </row>
-    <row r="921" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B921" s="3"/>
-      <c r="C921" s="5"/>
-      <c r="D921" s="3"/>
-      <c r="E921" s="3"/>
-      <c r="F921" s="3"/>
-      <c r="G921" s="5"/>
-      <c r="H921" s="5"/>
-      <c r="I921" s="5"/>
-    </row>
-    <row r="922" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B922" s="3"/>
-      <c r="C922" s="5"/>
-      <c r="D922" s="3"/>
-      <c r="E922" s="3"/>
-      <c r="F922" s="3"/>
-      <c r="G922" s="5"/>
-      <c r="H922" s="5"/>
-      <c r="I922" s="5"/>
-    </row>
-    <row r="923" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B923" s="3"/>
-      <c r="C923" s="5"/>
-      <c r="D923" s="3"/>
-      <c r="E923" s="3"/>
-      <c r="F923" s="3"/>
-      <c r="G923" s="5"/>
-      <c r="H923" s="5"/>
-      <c r="I923" s="5"/>
-    </row>
-    <row r="924" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B924" s="3"/>
-      <c r="C924" s="5"/>
-      <c r="D924" s="3"/>
-      <c r="E924" s="3"/>
-      <c r="F924" s="3"/>
-      <c r="G924" s="5"/>
-      <c r="H924" s="5"/>
-      <c r="I924" s="5"/>
-    </row>
-    <row r="925" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B925" s="3"/>
-      <c r="C925" s="5"/>
-      <c r="D925" s="3"/>
-      <c r="E925" s="3"/>
-      <c r="F925" s="3"/>
-      <c r="G925" s="5"/>
-      <c r="H925" s="5"/>
-      <c r="I925" s="5"/>
-    </row>
-    <row r="926" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B926" s="3"/>
-      <c r="C926" s="5"/>
-      <c r="D926" s="3"/>
-      <c r="E926" s="3"/>
-      <c r="F926" s="3"/>
-      <c r="G926" s="5"/>
-      <c r="H926" s="5"/>
-      <c r="I926" s="5"/>
-    </row>
-    <row r="927" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B927" s="3"/>
-      <c r="C927" s="5"/>
-      <c r="D927" s="3"/>
-      <c r="E927" s="3"/>
-      <c r="F927" s="3"/>
-      <c r="G927" s="5"/>
-      <c r="H927" s="5"/>
-      <c r="I927" s="5"/>
-    </row>
-    <row r="928" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B928" s="3"/>
-      <c r="C928" s="5"/>
-      <c r="D928" s="3"/>
-      <c r="E928" s="3"/>
-      <c r="F928" s="3"/>
-      <c r="G928" s="5"/>
-      <c r="H928" s="5"/>
-      <c r="I928" s="5"/>
-    </row>
-    <row r="929" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B929" s="3"/>
-      <c r="C929" s="5"/>
-      <c r="D929" s="3"/>
-      <c r="E929" s="3"/>
-      <c r="F929" s="3"/>
-      <c r="G929" s="5"/>
-      <c r="H929" s="5"/>
-      <c r="I929" s="5"/>
-    </row>
-    <row r="930" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B930" s="3"/>
-      <c r="C930" s="5"/>
-      <c r="D930" s="3"/>
-      <c r="E930" s="3"/>
-      <c r="F930" s="3"/>
-      <c r="G930" s="5"/>
-      <c r="H930" s="5"/>
-      <c r="I930" s="5"/>
-    </row>
-    <row r="931" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B931" s="3"/>
-      <c r="C931" s="5"/>
-      <c r="D931" s="3"/>
-      <c r="E931" s="3"/>
-      <c r="F931" s="3"/>
-      <c r="G931" s="5"/>
-      <c r="H931" s="5"/>
-      <c r="I931" s="5"/>
-    </row>
-    <row r="932" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B932" s="3"/>
-      <c r="C932" s="5"/>
-      <c r="D932" s="3"/>
-      <c r="E932" s="3"/>
-      <c r="F932" s="3"/>
-      <c r="G932" s="5"/>
-      <c r="H932" s="5"/>
-      <c r="I932" s="5"/>
-    </row>
-    <row r="933" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B933" s="3"/>
-      <c r="C933" s="5"/>
-      <c r="D933" s="3"/>
-      <c r="E933" s="3"/>
-      <c r="F933" s="3"/>
-      <c r="G933" s="5"/>
-      <c r="H933" s="5"/>
-      <c r="I933" s="5"/>
-    </row>
-    <row r="934" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B934" s="3"/>
-      <c r="C934" s="5"/>
-      <c r="D934" s="3"/>
-      <c r="E934" s="3"/>
-      <c r="F934" s="3"/>
-      <c r="G934" s="5"/>
-      <c r="H934" s="5"/>
-      <c r="I934" s="5"/>
-    </row>
-    <row r="935" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B935" s="3"/>
-      <c r="C935" s="5"/>
-      <c r="D935" s="3"/>
-      <c r="E935" s="3"/>
-      <c r="F935" s="3"/>
-      <c r="G935" s="5"/>
-      <c r="H935" s="5"/>
-      <c r="I935" s="5"/>
-    </row>
-    <row r="936" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B936" s="3"/>
-      <c r="C936" s="5"/>
-      <c r="D936" s="3"/>
-      <c r="E936" s="3"/>
-      <c r="F936" s="3"/>
-      <c r="G936" s="5"/>
-      <c r="H936" s="5"/>
-      <c r="I936" s="5"/>
-    </row>
-    <row r="937" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B937" s="3"/>
-      <c r="C937" s="5"/>
-      <c r="D937" s="3"/>
-      <c r="E937" s="3"/>
-      <c r="F937" s="3"/>
-      <c r="G937" s="5"/>
-      <c r="H937" s="5"/>
-      <c r="I937" s="5"/>
-    </row>
-    <row r="938" spans="1:11" customHeight="1" ht="37.5">
-      <c r="B938" s="3"/>
-      <c r="C938" s="5"/>
-      <c r="D938" s="3"/>
-      <c r="E938" s="3"/>
-      <c r="F938" s="3"/>
-      <c r="G938" s="5"/>
-      <c r="H938" s="5"/>
-      <c r="I938" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/to_export_date.xlsx
+++ b/to_export_date.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -61,151 +61,7 @@
     <t>ARRIVAL</t>
   </si>
   <si>
-    <t>May 01, 2020</t>
-  </si>
-  <si>
-    <t>May 04, 2020 to January 01, 1970</t>
-  </si>
-  <si>
-    <t>7:00 AM</t>
-  </si>
-  <si>
-    <t>4:00 PM</t>
-  </si>
-  <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>Christian Paul V. Ferrer</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>Tagaytay</t>
-  </si>
-  <si>
-    <t>May 04, 2020</t>
-  </si>
-  <si>
-    <t>May 20, 2020 to January 01, 1970</t>
-  </si>
-  <si>
-    <t>8:00 AM</t>
-  </si>
-  <si>
-    <t>5:00 PM</t>
-  </si>
-  <si>
-    <t>ro</t>
-  </si>
-  <si>
-    <t>May 08, 2020</t>
-  </si>
-  <si>
-    <t>May 19, 2020 to January 01, 1970</t>
-  </si>
-  <si>
-    <t>3:20 PM</t>
-  </si>
-  <si>
-    <t>5:20 PM</t>
-  </si>
-  <si>
-    <t>Shiela Mei  Olivar</t>
-  </si>
-  <si>
-    <t>it test</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>May 11, 2020</t>
-  </si>
-  <si>
-    <t>May 11, 2020 to January 01, 1970</t>
-  </si>
-  <si>
-    <t>6:00 PM</t>
-  </si>
-  <si>
-    <t>Maybelline  Monteiro</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>May 06, 2020 to January 01, 1970</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>May 18, 2020</t>
-  </si>
-  <si>
-    <t>May 20, 2020 to May 07, 2020</t>
-  </si>
-  <si>
-    <t>Christian Paul V Ferrer</t>
-  </si>
-  <si>
-    <t>May 18, 2020 to January 01, 1970</t>
-  </si>
-  <si>
-    <t>May 20, 2020 to May 13, 2020</t>
-  </si>
-  <si>
-    <t>May 19, 2020</t>
-  </si>
-  <si>
-    <t>May 19, 2020 to May 20, 2020</t>
-  </si>
-  <si>
-    <t>9:00 AM</t>
-  </si>
-  <si>
-    <t>May 18, 2020 to May 14, 2020</t>
-  </si>
-  <si>
-    <t>7:07 AM</t>
-  </si>
-  <si>
-    <t>7:07 PM</t>
-  </si>
-  <si>
-    <t>May 24, 2020</t>
-  </si>
-  <si>
-    <t>May 27, 2020 to May 26, 2020</t>
-  </si>
-  <si>
-    <t>9:00 PM</t>
-  </si>
-  <si>
-    <t>asasa</t>
-  </si>
-  <si>
-    <t>DILG CENTTAL OFFICE</t>
-  </si>
-  <si>
-    <t>May 24, 2020 to May 24, 2020</t>
-  </si>
-  <si>
-    <t>3:41 PM</t>
-  </si>
-  <si>
-    <t>3:42 PM</t>
-  </si>
-  <si>
-    <t>May 25, 2020 to May 25, 2020</t>
-  </si>
-  <si>
-    <t>3:58 PM</t>
-  </si>
-  <si>
-    <t>r</t>
+    <t>*********No Travel Order data.*********</t>
   </si>
 </sst>
 </file>
@@ -367,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -468,6 +324,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="18" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -773,7 +650,7 @@
   <dimension ref="A1:K911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="37.5" defaultColWidth="14.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -897,410 +774,172 @@
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="37.5">
       <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" customHeight="1" ht="37.5">
+      <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" customHeight="1" ht="37.5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="18"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="37.5">
       <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:11" customHeight="1" ht="37.5">
       <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="17">
-        <v>1</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="37.5">
       <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="37.5">
       <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="37.5">
       <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="37.5">
       <c r="A15" s="13"/>
-      <c r="B15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="17">
-        <v>1</v>
-      </c>
-      <c r="I15" s="17">
-        <v>1</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="37.5">
       <c r="A16" s="13"/>
-      <c r="B16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="17">
-        <v>4</v>
-      </c>
-      <c r="I16" s="17">
-        <v>4</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:11" customHeight="1" ht="37.5">
       <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="17">
-        <v>2</v>
-      </c>
-      <c r="I17" s="17">
-        <v>2</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:11" customHeight="1" ht="37.5">
       <c r="A18" s="13"/>
-      <c r="B18" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="17">
-        <v>7</v>
-      </c>
-      <c r="I18" s="17">
-        <v>7</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:11" customHeight="1" ht="37.5">
       <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:11" customHeight="1" ht="37.5">
       <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1</v>
-      </c>
-      <c r="I20" s="17">
-        <v>1</v>
-      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:11" customHeight="1" ht="37.5">
       <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:11" customHeight="1" ht="37.5">
@@ -10267,6 +9906,7 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
